--- a/Auto-Eval-ASI2-r1.xlsx
+++ b/Auto-Eval-ASI2-r1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C8633-F0EF-41AA-A9E3-4A60E5535B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16D6F1-2A49-4A1B-ADB6-59206309BCAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -956,10 +956,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -993,10 +993,10 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1030,10 +1030,10 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -1067,10 +1067,10 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -1104,10 +1104,10 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1141,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
@@ -1178,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -1215,10 +1215,10 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -1252,10 +1252,10 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1289,10 +1289,10 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1326,10 +1326,10 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
@@ -1363,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -1400,10 +1400,10 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
@@ -1437,10 +1437,10 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
@@ -1511,10 +1511,10 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
         <v>14</v>
@@ -1548,10 +1548,10 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
         <v>14</v>
@@ -1602,10 +1602,10 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -1639,10 +1639,10 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
         <v>14</v>
@@ -1676,10 +1676,10 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
         <v>14</v>
@@ -1713,10 +1713,10 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -1750,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -1787,10 +1787,10 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
         <v>14</v>
@@ -1824,10 +1824,10 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L32" t="s">
         <v>14</v>
@@ -1861,10 +1861,10 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L33" t="s">
         <v>14</v>
@@ -1898,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -1935,10 +1935,10 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" t="s">
         <v>14</v>
@@ -1972,10 +1972,10 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36" t="s">
         <v>14</v>
@@ -2009,10 +2009,10 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
@@ -2046,10 +2046,10 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L38" t="s">
         <v>14</v>
@@ -2083,10 +2083,10 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L39" t="s">
         <v>14</v>
@@ -2120,10 +2120,10 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>

--- a/Auto-Eval-ASI2-r1.xlsx
+++ b/Auto-Eval-ASI2-r1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E16D6F1-2A49-4A1B-ADB6-59206309BCAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73910852-B834-4232-88E9-1B5C3BF40FE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,13 +755,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -907,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -981,10 +981,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1018,10 +1018,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1055,10 +1055,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1092,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1129,10 +1129,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1166,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1203,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1240,10 +1240,10 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1277,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1314,10 +1314,10 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1351,10 +1351,10 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1388,10 +1388,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1425,10 +1425,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1462,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1499,10 +1499,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1536,10 +1536,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1627,10 +1627,10 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1664,10 +1664,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1701,10 +1701,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1738,10 +1738,10 @@
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1775,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -1812,10 +1812,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1849,10 +1849,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1886,10 +1886,10 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1923,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1997,10 +1997,10 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -2034,10 +2034,10 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -2071,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2108,10 +2108,10 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
